--- a/Suivi tache INCA.xlsx
+++ b/Suivi tache INCA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stephane.lenoble\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://m2c365-my.sharepoint.com/personal/stephane_lenoble_consort-group_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3EF439-6169-400E-BD46-9F1AF686A6BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{7C3EF439-6169-400E-BD46-9F1AF686A6BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1D438FF3-08AF-48F5-B88F-B480ACB1D0AC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0E5A3AAB-D379-49C6-AFA9-D826BDA97842}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
   <si>
     <t>Tâche</t>
   </si>
@@ -135,27 +135,15 @@
     <t>POST_GRES : pstgr_write_table_supp_vide.R</t>
   </si>
   <si>
-    <t>PUBMED : 14-definition_identification_id_plus_present.R</t>
-  </si>
-  <si>
     <t>PUBMED : identification_id_a_charger.R</t>
   </si>
   <si>
     <t>PUBMED : 12-definition_lancement_PUBMED</t>
   </si>
   <si>
-    <t>PUBMED : 02-definition_fonction_searchAPI.R</t>
-  </si>
-  <si>
-    <t>PUBMED : 03-definition_fonction_fetchAPI.R</t>
-  </si>
-  <si>
     <t>PUBMED : 07-definition_check_xml.R</t>
   </si>
   <si>
-    <t>PUBMED : 09-definition_fonction_full_traitements_xml.R</t>
-  </si>
-  <si>
     <t>PUBMED : 11-definition_fonction_test_reprise_necessaire.R</t>
   </si>
   <si>
@@ -295,6 +283,48 @@
   </si>
   <si>
     <t>à définir</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>PUBMED : pstgr_write_table_pubmed_vide</t>
+  </si>
+  <si>
+    <t>PUBMED : identification_id_plus_present.R</t>
+  </si>
+  <si>
+    <t>voir comment enlever ce nombre max. Quel est l'intérêt de cette fonction au final ? VS utiliser directement entrez_search ?</t>
+  </si>
+  <si>
+    <t>remarque</t>
+  </si>
+  <si>
+    <t>PUBMED : searchAPI.R</t>
+  </si>
+  <si>
+    <t>PUBMED : fetchAPI.R</t>
+  </si>
+  <si>
+    <t>PUBMED : full_traitements_xml.R</t>
+  </si>
+  <si>
+    <t>traitement_xml_by_type</t>
+  </si>
+  <si>
+    <t>Verification</t>
+  </si>
+  <si>
+    <t>verif macro bonne integration DESC</t>
+  </si>
+  <si>
+    <t>verif macro bonne integration SUPP</t>
+  </si>
+  <si>
+    <t>verif macro bonne integration PA</t>
+  </si>
+  <si>
+    <t>verif macro bonne integration QUAL</t>
   </si>
 </sst>
 </file>
@@ -646,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41643EA0-6ECB-4C25-B575-22BA559AABFF}">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +688,7 @@
     <col min="2" max="2" width="70.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -668,8 +698,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -680,38 +713,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -719,437 +761,581 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>21</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+      <c r="B69" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B71" t="s">
         <v>57</v>
       </c>
-      <c r="B67" t="s">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B73" t="s">
         <v>60</v>
       </c>
-      <c r="B69" t="s">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+      <c r="B74" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>63</v>
       </c>
-      <c r="B71" t="s">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B77" t="s">
         <v>65</v>
       </c>
-      <c r="B72" t="s">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+      <c r="B78" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>68</v>
       </c>
-      <c r="B75" t="s">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>70</v>
-      </c>
-      <c r="B76" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>85</v>
-      </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Suivi tache INCA.xlsx
+++ b/Suivi tache INCA.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="124">
   <si>
     <t xml:space="preserve">Tâche</t>
   </si>
@@ -148,13 +148,13 @@
     <t xml:space="preserve">PUBMED : searchAPI.R</t>
   </si>
   <si>
-    <t xml:space="preserve">voir comment enlever ce nombre max. Quel est l'intérêt de cette fonction au final ? VS utiliser directement entrez_search ?</t>
+    <t xml:space="preserve">voir comment enlever ce nombre max. Quel est l'intérêt de cette fonction au final ? VS utiliser directement entrez_search ? + interet keyterm</t>
   </si>
   <si>
     <t xml:space="preserve">PUBMED : fetchAPI.R</t>
   </si>
   <si>
-    <t xml:space="preserve">PUBMED : definition_check_xml.R</t>
+    <t xml:space="preserve">PUBMED : check_xml.R</t>
   </si>
   <si>
     <t xml:space="preserve">PUBMED : full_traitements_xml.R</t>
@@ -175,7 +175,10 @@
     <t xml:space="preserve">TEST : Tests.R</t>
   </si>
   <si>
-    <t xml:space="preserve">plus utilisés ???</t>
+    <t xml:space="preserve">a splitter ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST : test_integration_all_record.R</t>
   </si>
   <si>
     <t xml:space="preserve">TOOLS : journal.R</t>
@@ -274,6 +277,9 @@
     <t xml:space="preserve">créer une table associant chaque NCT à l'ensemble des publications associées</t>
   </si>
   <si>
+    <t xml:space="preserve">finalement il faudra faire</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gestion des schemas</t>
   </si>
   <si>
@@ -349,6 +355,9 @@
     <t xml:space="preserve">mettre un test à la fin de la remontée postgre</t>
   </si>
   <si>
+    <t xml:space="preserve">a faire dans un temps 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">modifier la fonction split RDS</t>
   </si>
   <si>
@@ -364,16 +373,25 @@
     <t xml:space="preserve">Ecrire le script</t>
   </si>
   <si>
-    <t xml:space="preserve">V1 OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A améliorer</t>
+    <t xml:space="preserve">V1</t>
   </si>
   <si>
     <t xml:space="preserve">Init de la creation des schema prod/temp/arch</t>
   </si>
   <si>
     <t xml:space="preserve">a integrer dans la partie gestion des schemas ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ça se fait tout seul lors de la gestion des schemas en fait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il y a des dates qui restent dans mult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">à corriger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce sont des dates multiples</t>
   </si>
 </sst>
 </file>
@@ -541,15 +559,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C100" activeCellId="0" sqref="B97:C100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.86"/>
   </cols>
   <sheetData>
@@ -845,126 +863,126 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
+      <c r="C47" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
+      <c r="C49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -979,63 +997,63 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+      <c r="C52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
+      <c r="C53" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
+      <c r="C54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="s">
+      <c r="C55" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="s">
+      <c r="C56" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="s">
+      <c r="C57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
         <v>50</v>
       </c>
@@ -1043,51 +1061,51 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="s">
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="s">
+      <c r="C61" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C62" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="s">
+      <c r="C62" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="s">
+      <c r="C63" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0" t="s">
+      <c r="C64" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1195,68 +1213,77 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="s">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C79" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="0" t="s">
+      <c r="C80" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C80" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B81" s="0" t="s">
+      <c r="C81" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="C82" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="C83" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="B85" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B85" s="0" t="s">
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="B86" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="1" t="s">
         <v>81</v>
       </c>
@@ -1264,72 +1291,72 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="B89" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="D89" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="C90" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>88</v>
+      </c>
       <c r="B91" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>6</v>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>6</v>
@@ -1337,7 +1364,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>6</v>
@@ -1345,7 +1372,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>6</v>
@@ -1353,25 +1380,25 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D101" s="0" t="s">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="C101" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="B102" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="D102" s="0" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1383,27 +1410,39 @@
         <v>103</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="0" t="s">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="0" t="s">
+      <c r="B104" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="0" t="s">
+      <c r="C104" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="C105" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="C106" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="1" t="s">
         <v>108</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1413,35 +1452,63 @@
       <c r="B108" s="0" t="s">
         <v>110</v>
       </c>
+      <c r="D108" s="0" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="C110" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="D110" s="0" t="s">
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="B111" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="C111" s="1" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
